--- a/excelConfig.xlsx
+++ b/excelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S\Documents\UiPath\PopulateMySQLDatabase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A9A1A-535C-485D-8CB6-C70D913541BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9154B3CC-4ED7-4EFE-B5B6-A1617F696FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7EEEAA80-919A-44DE-9B74-7273AD822933}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7EEEAA80-919A-44DE-9B74-7273AD822933}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,20 +405,20 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -434,7 +434,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
